--- a/Dados/30-jun.xlsx
+++ b/Dados/30-jun.xlsx
@@ -4780,7 +4780,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>moji mirim</t>
+          <t>mogi mirim</t>
         </is>
       </c>
       <c r="B340" t="n">
